--- a/Poprawa Modeli.xlsx
+++ b/Poprawa Modeli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ndzad\Dropbox\MINI\Magisterka\repo\mgr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEF143A-503D-4CC4-BA22-5654E2D46B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADA5615-9E8F-4F86-81D7-9177D209BD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{2FFEF9B8-D56D-4B2F-9F6F-953216603BF8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2FFEF9B8-D56D-4B2F-9F6F-953216603BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Symulacje" sheetId="2" r:id="rId1"/>
@@ -81,7 +81,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="173" formatCode="0.000000E+00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +100,13 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFF8F8F2"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,10 +130,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -611,19 +623,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB0D065-8B20-4C59-991B-F52C5F74EFA3}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -637,167 +650,190 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>7.289588E+16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>269569400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="4">
+        <v>7.162674E+16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>267260400</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>3.7947E+16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>194476500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
+        <v>3.740044E+16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>193068100</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>7.252073E+16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>269080600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <v>9.483335E+16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>306231400</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>3.785231E+16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>194367400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="4">
+        <v>4.874634E+16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>218690900</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>7.249332E+16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>269032900</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <v>7.160415E+16</v>
+      </c>
+      <c r="D6" s="4">
+        <v>267083800</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>3.801572E+16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>194804900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>3.752408E+16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>193326000</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>7.240147E+16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>268854600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="4">
+        <v>7.108349E+16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>266084900</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
-        <v>3.798024E+16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>194722100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>3.685161E+16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>191521800</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>2.249797E+161</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.1212249999999999E+79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <v>7.5929360000000004E+135</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3.8969050000000001E+66</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
-        <v>5.8033159999999995E+149</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3.4068509999999999E+73</v>
-      </c>
+      <c r="C11" s="4">
+        <v>1.7992550000000001E+113</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2.4238729999999999E+55</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6CD40B-293A-440B-A224-1544CE7BEAB2}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D9" sqref="C2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -811,145 +847,165 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
-        <v>7.254128E+16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>268944300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="4">
+        <v>7.149445E+16</v>
+      </c>
+      <c r="D2" s="4">
+        <v>266975700</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>3.762497E+16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>193685700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
+        <v>3.777696E+16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>193958600</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>7.272106E+16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>269461200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <v>9.753926E+16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>310500100</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1">
-        <v>3.785748E+16</v>
-      </c>
-      <c r="D5" s="1">
-        <v>194397200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="4">
+        <v>4.761988E+16</v>
+      </c>
+      <c r="D5" s="4">
+        <v>216681400</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>7.250584E+16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>269053100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <v>7.217206E+16</v>
+      </c>
+      <c r="D6" s="4">
+        <v>268166000</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <v>3.755301E+16</v>
-      </c>
-      <c r="D7" s="1">
-        <v>193627100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>3.824686E+16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>195143000</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1">
-        <v>7.213493E+16</v>
-      </c>
-      <c r="D8" s="1">
-        <v>268371500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="4">
+        <v>7.098476E+16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>265918500</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1">
-        <v>3.745971E+16</v>
-      </c>
-      <c r="D9" s="1">
-        <v>193384300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>3.696375E+16</v>
+      </c>
+      <c r="D9" s="4">
+        <v>191884600</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1">
-        <v>8.3399680000000006E+129</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4.0854659999999997E+63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <v>3.5828749999999998E+116</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1.1056829999999999E+57</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
-        <v>1.447236E+148</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5.3800300000000002E+72</v>
-      </c>
+      <c r="C11" s="4">
+        <v>6.5725570000000004E+169</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3.625619E+83</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1133,7 +1189,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B11"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,11 +1222,11 @@
       </c>
       <c r="C2" s="2">
         <f>Bootstrap!C2/Symulacje!C2-1</f>
-        <v>2.0705044498003922E-4</v>
+        <v>-1.720686617145617E-2</v>
       </c>
       <c r="D2" s="2">
         <f>Bootstrap!D2/Symulacje!D2-1</f>
-        <v>-1.2981983973558986E-4</v>
+        <v>-8.694220124003893E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1182,11 +1238,11 @@
       </c>
       <c r="C3" s="2">
         <f>Bootstrap!C3/Symulacje!C3-1</f>
-        <v>7.3469136379273881E-3</v>
+        <v>-7.1621524046567853E-3</v>
       </c>
       <c r="D3" s="2">
         <f>Bootstrap!D3/Symulacje!D3-1</f>
-        <v>3.746050982009308E-3</v>
+        <v>-3.5230840456318413E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1198,11 +1254,11 @@
       </c>
       <c r="C4" s="2">
         <f>Bootstrap!C4/Symulacje!C4-1</f>
-        <v>-0.28040482278708356</v>
+        <v>-5.9005317528594503E-2</v>
       </c>
       <c r="D4" s="2">
         <f>Bootstrap!D4/Symulacje!D4-1</f>
-        <v>-0.14596755585333709</v>
+        <v>-2.8054973058427857E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1214,11 +1270,11 @@
       </c>
       <c r="C5" s="2">
         <f>Bootstrap!C5/Symulacje!C5-1</f>
-        <v>-0.20840213645185035</v>
+        <v>1.9422555711704481E-2</v>
       </c>
       <c r="D5" s="2">
         <f>Bootstrap!D5/Symulacje!D5-1</f>
-        <v>-0.10400825335742103</v>
+        <v>8.1178297689714629E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,11 +1286,11 @@
       </c>
       <c r="C6" s="2">
         <f>Bootstrap!C6/Symulacje!C6-1</f>
-        <v>-8.3086767033252462E-3</v>
+        <v>-2.04723101792883E-2</v>
       </c>
       <c r="D6" s="2">
         <f>Bootstrap!D6/Symulacje!D6-1</f>
-        <v>-2.9363454562435498E-3</v>
+        <v>-1.0159910934931182E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1246,11 +1302,11 @@
       </c>
       <c r="C7" s="2">
         <f>Bootstrap!C7/Symulacje!C7-1</f>
-        <v>-3.0799957097717989E-3</v>
+        <v>-1.5972708274711978E-2</v>
       </c>
       <c r="D7" s="2">
         <f>Bootstrap!D7/Symulacje!D7-1</f>
-        <v>-2.1350139725373474E-4</v>
+        <v>-7.8035787145265267E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1262,11 +1318,11 @@
       </c>
       <c r="C8" s="2">
         <f>Bootstrap!C8/Symulacje!C8-1</f>
-        <v>1.4906486816926856E-2</v>
+        <v>-3.5686415402043092E-3</v>
       </c>
       <c r="D8" s="2">
         <f>Bootstrap!D8/Symulacje!D8-1</f>
-        <v>8.7171783265898029E-3</v>
+        <v>-1.6744756336218858E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1278,11 +1334,11 @@
       </c>
       <c r="C9" s="2">
         <f>Bootstrap!C9/Symulacje!C9-1</f>
-        <v>2.0585986781909593E-2</v>
+        <v>-9.741993300935281E-3</v>
       </c>
       <c r="D9" s="2">
         <f>Bootstrap!D9/Symulacje!D9-1</f>
-        <v>1.1723121718248075E-2</v>
+        <v>-4.9047674963551557E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1294,11 +1350,11 @@
       </c>
       <c r="C10" s="2">
         <f>Bootstrap!C10/Symulacje!C10-1</f>
-        <v>3.5101687061286835E+37</v>
+        <v>1184661831036.9961</v>
       </c>
       <c r="D10" s="2">
         <f>Bootstrap!D10/Symulacje!D10-1</f>
-        <v>4.3692464045081057E+18</v>
+        <v>802673.7827297746</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1314,7 +1370,7 @@
       </c>
       <c r="D11" s="2">
         <f>Bootstrap!D11/Symulacje!D11-1</f>
-        <v>-0.99999999999999967</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -1521,8 +1577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3A1639-BA12-4DCC-8FF4-4AE739DDF89B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="C2:D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1554,11 +1610,11 @@
       </c>
       <c r="C2" s="2">
         <f>Bootknife!C2/Symulacje!C2-1</f>
-        <v>-4.658429196500169E-3</v>
+        <v>-1.9022022126818361E-2</v>
       </c>
       <c r="D2" s="2">
         <f>Bootknife!D2/Symulacje!D2-1</f>
-        <v>-2.4484021774124898E-3</v>
+        <v>-9.7502117917956932E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1570,11 +1626,11 @@
       </c>
       <c r="C3" s="2">
         <f>Bootknife!C3/Symulacje!C3-1</f>
-        <v>-1.201744400885163E-3</v>
+        <v>2.8330055768159834E-3</v>
       </c>
       <c r="D3" s="2">
         <f>Bootknife!D3/Symulacje!D3-1</f>
-        <v>-3.3548265890137596E-4</v>
+        <v>1.0730283813167318E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1586,11 +1642,11 @@
       </c>
       <c r="C4" s="2">
         <f>Bootknife!C4/Symulacje!C4-1</f>
-        <v>-0.27841702561721138</v>
+        <v>-3.2155618332623814E-2</v>
       </c>
       <c r="D4" s="2">
         <f>Bootknife!D4/Symulacje!D4-1</f>
-        <v>-0.14475957301012121</v>
+        <v>-1.4506585347352163E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1602,11 +1658,11 @@
       </c>
       <c r="C5" s="2">
         <f>Bootknife!C5/Symulacje!C5-1</f>
-        <v>-0.20829401726560937</v>
+        <v>-4.1348792076557617E-3</v>
       </c>
       <c r="D5" s="2">
         <f>Bootknife!D5/Symulacje!D5-1</f>
-        <v>-0.10387088179176773</v>
+        <v>-1.1455313444573845E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1618,11 +1674,11 @@
       </c>
       <c r="C6" s="2">
         <f>Bootknife!C6/Symulacje!C6-1</f>
-        <v>-8.1374060901476808E-3</v>
+        <v>-1.270343686222386E-2</v>
       </c>
       <c r="D6" s="2">
         <f>Bootknife!D6/Symulacje!D6-1</f>
-        <v>-2.8614821743855323E-3</v>
+        <v>-6.1491662009330872E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1634,11 +1690,11 @@
       </c>
       <c r="C7" s="2">
         <f>Bootknife!C7/Symulacje!C7-1</f>
-        <v>-1.521405117906538E-2</v>
+        <v>2.9813938888374469E-3</v>
       </c>
       <c r="D7" s="2">
         <f>Bootknife!D7/Symulacje!D7-1</f>
-        <v>-6.2582597070001134E-3</v>
+        <v>1.5217106799454427E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1650,11 +1706,11 @@
       </c>
       <c r="C8" s="2">
         <f>Bootknife!C8/Symulacje!C8-1</f>
-        <v>1.1170192857754557E-2</v>
+        <v>-4.9526150623362408E-3</v>
       </c>
       <c r="D8" s="2">
         <f>Bootknife!D8/Symulacje!D8-1</f>
-        <v>6.9046325533370645E-3</v>
+        <v>-2.298792786735615E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1666,11 +1722,11 @@
       </c>
       <c r="C9" s="2">
         <f>Bootknife!C9/Symulacje!C9-1</f>
-        <v>6.5985653306606107E-3</v>
+        <v>-6.7286233865344602E-3</v>
       </c>
       <c r="D9" s="2">
         <f>Bootknife!D9/Symulacje!D9-1</f>
-        <v>4.7722764252142724E-3</v>
+        <v>-3.0197572763576153E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1682,11 +1738,11 @@
       </c>
       <c r="C10" s="2">
         <f>Bootknife!C10/Symulacje!C10-1</f>
-        <v>1301213.9400019036</v>
+        <v>-0.99999994409942006</v>
       </c>
       <c r="D10" s="2">
         <f>Bootknife!D10/Symulacje!D10-1</f>
-        <v>840.51410770852283</v>
+        <v>-0.9997722541704781</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1698,11 +1754,11 @@
       </c>
       <c r="C11" s="2">
         <f>Bootknife!C11/Symulacje!C11-1</f>
-        <v>-1</v>
+        <v>-0.99999999998402112</v>
       </c>
       <c r="D11" s="2">
         <f>Bootknife!D11/Symulacje!D11-1</f>
-        <v>-0.99999999999999989</v>
+        <v>-0.99999600263880029</v>
       </c>
     </row>
   </sheetData>
